--- a/data/popular_accounts_manually_validated_with_sv.xlsx
+++ b/data/popular_accounts_manually_validated_with_sv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nlotan/code/university/personal_llm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C3F5D3-C13D-BA45-AD74-75AAC4334F15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BDF121-D0DA-084D-B2F0-2172335837DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="🎤Singers" sheetId="2" r:id="rId1"/>
@@ -14015,9 +14015,6 @@
     <t>12044602</t>
   </si>
   <si>
-    <t>Arnold</t>
-  </si>
-  <si>
     <t>Former Mr. Olympia, Conan, Terminator, and Governor of California. I killed the Predator. I told you I'd be back. Sign up for my newsletter:</t>
   </si>
   <si>
@@ -14275,6 +14272,9 @@
   </si>
   <si>
     <t>Ice T</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
   </si>
 </sst>
 </file>
@@ -14364,7 +14364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -15348,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="E22" t="s">
         <v>1261</v>
@@ -15569,7 +15569,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="E29" t="s">
         <v>1297</v>
@@ -15761,7 +15761,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E35" t="s">
         <v>1333</v>
@@ -15825,7 +15825,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="E37" t="s">
         <v>1344</v>
@@ -18721,7 +18721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
+    <sheetView zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -21767,11 +21767,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21839,22 +21839,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B4" t="s">
         <v>2236</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>2237</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>2238</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>2239</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2240</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -21939,22 +21939,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B9" t="s">
         <v>2251</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>2252</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>2253</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>2254</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2255</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -21979,22 +21979,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B11" t="s">
         <v>2266</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>2267</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>2268</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>2269</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2270</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -22039,22 +22039,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B14" t="s">
         <v>2261</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>2262</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>2263</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>2264</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2265</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -22136,22 +22136,22 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B19" t="s">
         <v>2256</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>2257</v>
       </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>2258</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>2259</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2260</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -22205,33 +22205,33 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E22" t="s">
         <v>2233</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>2234</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2235</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B23" t="s">
         <v>2241</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>2242</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>2243</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>2244</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2245</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -22296,22 +22296,22 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B27" t="s">
         <v>2246</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>2247</v>
       </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>2248</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>2249</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2250</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/data/popular_accounts_manually_validated_with_sv.xlsx
+++ b/data/popular_accounts_manually_validated_with_sv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nlotan/code/university/personal_llm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BDF121-D0DA-084D-B2F0-2172335837DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAE7BD6-2B68-9741-92FC-A4E577E6D82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="🎤Singers" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3434" uniqueCount="2275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3427" uniqueCount="2272">
   <si>
     <t>twitter_screen_name</t>
   </si>
@@ -8942,15 +8942,6 @@
  -0.34704623 -0.01781945 -0.3876283   0.5942421  -0.03627904  0.13084206
   0.02351296  0.00253327  0.12826245 -0.27531666  0.2442006  -0.0418444
   0.25702685  0.10498712  0.04401484 -0.16154417]</t>
-  </si>
-  <si>
-    <t>TherealTaraji</t>
-  </si>
-  <si>
-    <t>Taraji P. Henson</t>
-  </si>
-  <si>
-    <t>Taraji aka TJ was born and raised in Washington DC.  Single mother and doin the damn thang!</t>
   </si>
   <si>
     <t>thekjohnston</t>
@@ -14675,7 +14666,7 @@
   <dimension ref="A1:AG100"/>
   <sheetViews>
     <sheetView zoomScale="199" zoomScaleNormal="199" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
@@ -15348,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
       <c r="E22" t="s">
         <v>1261</v>
@@ -15569,7 +15560,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
       <c r="E29" t="s">
         <v>1297</v>
@@ -15761,7 +15752,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
       <c r="E35" t="s">
         <v>1333</v>
@@ -15825,7 +15816,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="E37" t="s">
         <v>1344</v>
@@ -16305,19 +16296,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="B4">
         <v>335141638</v>
       </c>
       <c r="C4" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>1983</v>
+        <v>1980</v>
       </c>
       <c r="F4" t="s">
         <v>1021</v>
@@ -16332,7 +16323,7 @@
         <v>1019</v>
       </c>
       <c r="J4" t="s">
-        <v>1984</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -16811,54 +16802,54 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="B20">
         <v>4816</v>
       </c>
       <c r="C20" t="s">
+        <v>1982</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1984</v>
+      </c>
+      <c r="G20" t="s">
         <v>1985</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="H20" t="s">
         <v>1986</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1987</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1988</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1989</v>
       </c>
       <c r="I20" t="s">
         <v>1019</v>
       </c>
       <c r="J20" t="s">
-        <v>1990</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="B21">
         <v>24285686</v>
       </c>
       <c r="C21" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="F21" t="s">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="G21" t="s">
         <v>1031</v>
@@ -16870,27 +16861,27 @@
         <v>1019</v>
       </c>
       <c r="J21" t="s">
-        <v>1994</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B22">
         <v>297047872</v>
       </c>
       <c r="C22" t="s">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="F22" t="s">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="G22" t="s">
         <v>1036</v>
@@ -16902,59 +16893,59 @@
         <v>1019</v>
       </c>
       <c r="J22" t="s">
-        <v>1999</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B23">
         <v>26946348</v>
       </c>
       <c r="C23" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2000</v>
+      </c>
+      <c r="G23" t="s">
         <v>2001</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="H23" t="s">
         <v>2002</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2003</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2004</v>
-      </c>
-      <c r="H23" t="s">
-        <v>2005</v>
       </c>
       <c r="I23" t="s">
         <v>1019</v>
       </c>
       <c r="J23" t="s">
-        <v>2006</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B24">
         <v>25743813</v>
       </c>
       <c r="C24" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="F24" t="s">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="G24" t="s">
         <v>1036</v>
@@ -16966,155 +16957,155 @@
         <v>1019</v>
       </c>
       <c r="J24" t="s">
-        <v>2009</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B25">
         <v>18704659</v>
       </c>
       <c r="C25" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2009</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2010</v>
+      </c>
+      <c r="H25" t="s">
         <v>2011</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>2012</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2011</v>
-      </c>
-      <c r="G25" t="s">
-        <v>2013</v>
-      </c>
-      <c r="H25" t="s">
-        <v>2014</v>
       </c>
       <c r="I25" t="s">
         <v>1019</v>
       </c>
       <c r="J25" t="s">
-        <v>2015</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B26">
         <v>22720074</v>
       </c>
       <c r="C26" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2015</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2014</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2016</v>
+      </c>
+      <c r="H26" t="s">
         <v>2017</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>2018</v>
-      </c>
-      <c r="F26" t="s">
-        <v>2017</v>
-      </c>
-      <c r="G26" t="s">
-        <v>2019</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2020</v>
       </c>
       <c r="I26" t="s">
         <v>1019</v>
       </c>
       <c r="J26" t="s">
-        <v>2021</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B27">
         <v>380399508</v>
       </c>
       <c r="C27" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2021</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2022</v>
+      </c>
+      <c r="H27" t="s">
         <v>2023</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2024</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2023</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2025</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2026</v>
       </c>
       <c r="I27" t="s">
         <v>1019</v>
       </c>
       <c r="J27" t="s">
-        <v>2027</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2028</v>
+        <v>2025</v>
       </c>
       <c r="B28">
         <v>158014897</v>
       </c>
       <c r="C28" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2027</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2028</v>
+      </c>
+      <c r="H28" t="s">
         <v>2029</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2030</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2029</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2031</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2032</v>
       </c>
       <c r="I28" t="s">
         <v>1019</v>
       </c>
       <c r="J28" t="s">
-        <v>2033</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2034</v>
+        <v>2031</v>
       </c>
       <c r="B29">
         <v>19661294</v>
       </c>
       <c r="C29" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="F29" t="s">
-        <v>2035</v>
+        <v>2032</v>
       </c>
       <c r="G29" t="s">
         <v>1036</v>
@@ -17126,30 +17117,30 @@
         <v>1019</v>
       </c>
       <c r="J29" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="B30">
         <v>28136539</v>
       </c>
       <c r="C30" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>2039</v>
+        <v>2036</v>
       </c>
       <c r="F30" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
       <c r="G30" t="s">
-        <v>2041</v>
+        <v>2038</v>
       </c>
       <c r="H30" t="s">
         <v>1041</v>
@@ -17158,82 +17149,82 @@
         <v>1019</v>
       </c>
       <c r="J30" t="s">
-        <v>2042</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2043</v>
+        <v>2040</v>
       </c>
       <c r="B31">
         <v>19956739</v>
       </c>
       <c r="C31" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>2045</v>
+        <v>2042</v>
       </c>
       <c r="F31" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="I31" t="s">
         <v>1019</v>
       </c>
       <c r="J31" t="s">
-        <v>2046</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="B32">
         <v>18124756</v>
       </c>
       <c r="C32" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2045</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2047</v>
+      </c>
+      <c r="H32" t="s">
         <v>2048</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2049</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2048</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2050</v>
-      </c>
-      <c r="H32" t="s">
-        <v>2051</v>
       </c>
       <c r="I32" t="s">
         <v>1019</v>
       </c>
       <c r="J32" t="s">
-        <v>2052</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2053</v>
+        <v>2050</v>
       </c>
       <c r="B33">
         <v>108382988</v>
       </c>
       <c r="C33" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
       <c r="G33" t="s">
         <v>1035</v>
@@ -17245,30 +17236,30 @@
         <v>1019</v>
       </c>
       <c r="J33" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="B34">
         <v>18847632</v>
       </c>
       <c r="C34" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="F34" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="G34" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="H34" t="s">
         <v>1042</v>
@@ -17277,30 +17268,30 @@
         <v>1019</v>
       </c>
       <c r="J34" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
       <c r="B35">
         <v>21584475</v>
       </c>
       <c r="C35" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="F35" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="G35" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="H35" t="s">
         <v>1042</v>
@@ -17309,30 +17300,30 @@
         <v>1019</v>
       </c>
       <c r="J35" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="B36">
         <v>8.5929796658189107E+17</v>
       </c>
       <c r="C36" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="F36" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="G36" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="H36" t="s">
         <v>1048</v>
@@ -17341,27 +17332,27 @@
         <v>1019</v>
       </c>
       <c r="J36" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="B37">
         <v>89366493</v>
       </c>
       <c r="C37" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="G37" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="H37" t="s">
         <v>1049</v>
@@ -17370,91 +17361,91 @@
         <v>1019</v>
       </c>
       <c r="J37" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="B38">
         <v>3129056526</v>
       </c>
       <c r="C38" t="s">
+        <v>2073</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2075</v>
+      </c>
+      <c r="G38" t="s">
         <v>2076</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2077</v>
-      </c>
-      <c r="F38" t="s">
-        <v>2078</v>
-      </c>
-      <c r="G38" t="s">
-        <v>2079</v>
-      </c>
       <c r="H38" t="s">
-        <v>2026</v>
+        <v>2023</v>
       </c>
       <c r="I38" t="s">
         <v>1019</v>
       </c>
       <c r="J38" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="B39">
         <v>16685316</v>
       </c>
       <c r="C39" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="F39" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="G39" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="H39" t="s">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="I39" t="s">
         <v>1019</v>
       </c>
       <c r="J39" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="B40">
         <v>43969388</v>
       </c>
       <c r="C40" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="F40" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="G40" t="s">
         <v>1033</v>
@@ -17466,7 +17457,7 @@
         <v>1019</v>
       </c>
       <c r="J40" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -17696,7 +17687,7 @@
   <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
@@ -18009,7 +18000,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="F9" t="s">
         <v>1096</v>
@@ -18030,34 +18021,34 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="B10">
         <v>19005152</v>
       </c>
       <c r="C10" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2088</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2087</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2089</v>
+      </c>
+      <c r="H10" t="s">
         <v>2090</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2091</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2090</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2092</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2093</v>
       </c>
       <c r="I10" t="s">
         <v>100</v>
       </c>
       <c r="J10" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="N10" s="2"/>
     </row>
@@ -18096,25 +18087,25 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="B12">
         <v>338395294</v>
       </c>
       <c r="C12" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="F12" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="G12" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="H12" t="s">
         <v>1139</v>
@@ -18123,7 +18114,7 @@
         <v>974</v>
       </c>
       <c r="J12" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="N12" s="2"/>
     </row>
@@ -18489,22 +18480,22 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="B24">
         <v>23860949</v>
       </c>
       <c r="C24" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="F24" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="G24" t="s">
         <v>1141</v>
@@ -18516,27 +18507,27 @@
         <v>974</v>
       </c>
       <c r="J24" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="B25">
         <v>23623416</v>
       </c>
       <c r="C25" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="F25" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="G25" t="s">
         <v>1141</v>
@@ -18548,30 +18539,30 @@
         <v>974</v>
       </c>
       <c r="J25" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="B26">
         <v>47477421</v>
       </c>
       <c r="C26" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="F26" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="G26" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="H26" t="s">
         <v>1139</v>
@@ -18580,94 +18571,94 @@
         <v>974</v>
       </c>
       <c r="J26" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="B27">
         <v>60404690</v>
       </c>
       <c r="C27" t="s">
+        <v>2110</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2112</v>
+      </c>
+      <c r="G27" t="s">
         <v>2113</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>2114</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2115</v>
-      </c>
-      <c r="G27" t="s">
-        <v>2116</v>
-      </c>
-      <c r="H27" t="s">
-        <v>2117</v>
       </c>
       <c r="I27" t="s">
         <v>974</v>
       </c>
       <c r="J27" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="B28">
         <v>16527648</v>
       </c>
       <c r="C28" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2118</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2119</v>
+      </c>
+      <c r="G28" t="s">
         <v>2120</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="H28" t="s">
         <v>2121</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2122</v>
-      </c>
-      <c r="G28" t="s">
-        <v>2123</v>
-      </c>
-      <c r="H28" t="s">
-        <v>2124</v>
       </c>
       <c r="I28" t="s">
         <v>974</v>
       </c>
       <c r="J28" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="B29">
         <v>1159809212</v>
       </c>
       <c r="C29" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="F29" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="G29" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="H29" t="s">
         <v>1148</v>
@@ -18676,27 +18667,27 @@
         <v>974</v>
       </c>
       <c r="J29" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="B30">
         <v>26157070</v>
       </c>
       <c r="C30" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="F30" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="G30" t="s">
         <v>1139</v>
@@ -18708,7 +18699,7 @@
         <v>974</v>
       </c>
       <c r="J30" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
     </row>
   </sheetData>
@@ -18721,8 +18712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:AF92"/>
   <sheetViews>
-    <sheetView zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
@@ -18860,34 +18851,34 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="B5">
         <v>16129920</v>
       </c>
       <c r="C5" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G5" t="s">
         <v>2137</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>2138</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2139</v>
-      </c>
-      <c r="G5" t="s">
-        <v>2140</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2141</v>
       </c>
       <c r="I5" t="s">
         <v>100</v>
       </c>
       <c r="J5" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -19308,98 +19299,98 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="B19">
         <v>21619519</v>
       </c>
       <c r="C19" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2143</v>
+      </c>
+      <c r="H19" t="s">
         <v>2144</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2145</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2144</v>
-      </c>
-      <c r="G19" t="s">
-        <v>2146</v>
-      </c>
-      <c r="H19" t="s">
-        <v>2147</v>
       </c>
       <c r="I19" t="s">
         <v>387</v>
       </c>
       <c r="J19" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="B20">
         <v>20545835</v>
       </c>
       <c r="C20" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>2149</v>
+      </c>
+      <c r="H20" t="s">
         <v>2150</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2151</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2150</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2152</v>
-      </c>
-      <c r="H20" t="s">
-        <v>2153</v>
       </c>
       <c r="I20" t="s">
         <v>1154</v>
       </c>
       <c r="J20" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="B21">
         <v>16051471</v>
       </c>
       <c r="C21" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G21" t="s">
+        <v>2155</v>
+      </c>
+      <c r="H21" t="s">
         <v>2156</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2156</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2158</v>
-      </c>
-      <c r="H21" t="s">
-        <v>2159</v>
       </c>
       <c r="I21" t="s">
         <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
@@ -19500,77 +19491,77 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="B25">
         <v>457984599</v>
       </c>
       <c r="C25" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="F25" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="G25" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="H25" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="I25" t="s">
         <v>1154</v>
       </c>
       <c r="J25" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="B26">
         <v>16331010</v>
       </c>
       <c r="C26" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2165</v>
+      </c>
+      <c r="H26" t="s">
         <v>2166</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="I26" t="s">
         <v>2167</v>
       </c>
-      <c r="F26" t="s">
-        <v>2166</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="J26" t="s">
         <v>2168</v>
-      </c>
-      <c r="H26" t="s">
-        <v>2169</v>
-      </c>
-      <c r="I26" t="s">
-        <v>2170</v>
-      </c>
-      <c r="J26" t="s">
-        <v>2171</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="B27">
         <v>6017542</v>
       </c>
       <c r="C27" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -19588,199 +19579,199 @@
         <v>974</v>
       </c>
       <c r="J27" t="s">
-        <v>2174</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="B28">
         <v>4081106480</v>
       </c>
       <c r="C28" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="F28" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="G28" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="H28" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="I28" t="s">
         <v>1154</v>
       </c>
       <c r="J28" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="B29">
         <v>264361128</v>
       </c>
       <c r="C29" t="s">
+        <v>2177</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2179</v>
+      </c>
+      <c r="H29" t="s">
         <v>2180</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2181</v>
-      </c>
-      <c r="F29" t="s">
-        <v>2180</v>
-      </c>
-      <c r="G29" t="s">
-        <v>2182</v>
-      </c>
-      <c r="H29" t="s">
-        <v>2183</v>
       </c>
       <c r="I29" t="s">
         <v>100</v>
       </c>
       <c r="J29" t="s">
-        <v>2184</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>2185</v>
+        <v>2182</v>
       </c>
       <c r="B30">
         <v>16664681</v>
       </c>
       <c r="C30" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2185</v>
+      </c>
+      <c r="H30" t="s">
         <v>2186</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>2187</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2186</v>
-      </c>
-      <c r="G30" t="s">
-        <v>2188</v>
-      </c>
-      <c r="H30" t="s">
-        <v>2189</v>
       </c>
       <c r="I30" t="s">
         <v>975</v>
       </c>
       <c r="J30" t="s">
-        <v>2190</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>2191</v>
+        <v>2188</v>
       </c>
       <c r="B31">
         <v>2303751216</v>
       </c>
       <c r="C31" t="s">
-        <v>2218</v>
+        <v>2215</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>2192</v>
+        <v>2189</v>
       </c>
       <c r="F31" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H31" t="s">
         <v>2191</v>
-      </c>
-      <c r="G31" t="s">
-        <v>2193</v>
-      </c>
-      <c r="H31" t="s">
-        <v>2194</v>
       </c>
       <c r="I31" t="s">
         <v>1154</v>
       </c>
       <c r="J31" t="s">
-        <v>2195</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>2196</v>
+        <v>2193</v>
       </c>
       <c r="B32">
         <v>71294756</v>
       </c>
       <c r="C32" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2195</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2196</v>
+      </c>
+      <c r="H32" t="s">
         <v>2197</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>2198</v>
-      </c>
-      <c r="F32" t="s">
-        <v>2197</v>
-      </c>
-      <c r="G32" t="s">
-        <v>2199</v>
-      </c>
-      <c r="H32" t="s">
-        <v>2200</v>
       </c>
       <c r="I32" t="s">
         <v>100</v>
       </c>
       <c r="J32" t="s">
-        <v>2201</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>2202</v>
+        <v>2199</v>
       </c>
       <c r="B33">
         <v>20402945</v>
       </c>
       <c r="C33" t="s">
+        <v>2199</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H33" t="s">
         <v>2202</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>2203</v>
-      </c>
-      <c r="F33" t="s">
-        <v>2202</v>
-      </c>
-      <c r="G33" t="s">
-        <v>2204</v>
-      </c>
-      <c r="H33" t="s">
-        <v>2205</v>
       </c>
       <c r="I33" t="s">
         <v>434</v>
       </c>
       <c r="J33" t="s">
-        <v>2206</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -19817,66 +19808,66 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>2207</v>
+        <v>2204</v>
       </c>
       <c r="B35">
         <v>972651</v>
       </c>
       <c r="C35" t="s">
+        <v>2205</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F35" t="s">
+        <v>2205</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2207</v>
+      </c>
+      <c r="H35" t="s">
         <v>2208</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>2209</v>
-      </c>
-      <c r="F35" t="s">
-        <v>2208</v>
-      </c>
-      <c r="G35" t="s">
-        <v>2210</v>
-      </c>
-      <c r="H35" t="s">
-        <v>2211</v>
       </c>
       <c r="I35" t="s">
         <v>1154</v>
       </c>
       <c r="J35" t="s">
-        <v>2212</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>2213</v>
+        <v>2210</v>
       </c>
       <c r="B36">
         <v>816653</v>
       </c>
       <c r="C36" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2210</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H36" t="s">
         <v>2213</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2214</v>
-      </c>
-      <c r="F36" t="s">
-        <v>2213</v>
-      </c>
-      <c r="G36" t="s">
-        <v>2215</v>
-      </c>
-      <c r="H36" t="s">
-        <v>2216</v>
       </c>
       <c r="I36" t="s">
         <v>1154</v>
       </c>
       <c r="J36" t="s">
-        <v>2217</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -20113,13 +20104,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AF101"/>
+  <dimension ref="A1:AF100"/>
   <sheetViews>
     <sheetView zoomScale="204" zoomScaleNormal="204" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21377,22 +21368,22 @@
         <v>1431</v>
       </c>
       <c r="B37">
-        <v>84358766</v>
+        <v>426962696</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
         <v>1432</v>
       </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>1433</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1432</v>
       </c>
       <c r="H37" t="s">
         <v>1366</v>
@@ -21403,13 +21394,16 @@
       <c r="J37" t="s">
         <v>197</v>
       </c>
+      <c r="K37" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B38">
-        <v>426962696</v>
+        <v>581999965</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -21421,93 +21415,62 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="G38" t="s">
         <v>1436</v>
       </c>
       <c r="H38" t="s">
-        <v>1366</v>
+        <v>179</v>
       </c>
       <c r="I38" t="s">
-        <v>1367</v>
+        <v>191</v>
       </c>
       <c r="J38" t="s">
         <v>197</v>
       </c>
       <c r="K38" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B39">
-        <v>581999965</v>
+        <v>164679813</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G39" t="s">
         <v>1440</v>
       </c>
-      <c r="G39" t="s">
-        <v>1439</v>
-      </c>
       <c r="H39" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="I39" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="J39" t="s">
         <v>197</v>
       </c>
       <c r="K39" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B40">
-        <v>164679813</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1443</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1444</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1443</v>
-      </c>
-      <c r="H40" t="s">
-        <v>187</v>
-      </c>
-      <c r="I40" t="s">
-        <v>196</v>
-      </c>
-      <c r="J40" t="s">
-        <v>197</v>
-      </c>
-      <c r="K40" t="s">
-        <v>1445</v>
-      </c>
+      <c r="I40" s="2"/>
+      <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I41" s="2"/>
@@ -21523,10 +21486,10 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I44" s="2"/>
-      <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I45" s="2"/>
+      <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I46" s="2"/>
@@ -21657,14 +21620,14 @@
       <c r="N77" s="2"/>
     </row>
     <row r="78" spans="5:32" x14ac:dyDescent="0.2">
+      <c r="E78" s="2"/>
       <c r="I78" s="2"/>
       <c r="N78" s="2"/>
+      <c r="AF78" s="2"/>
     </row>
     <row r="79" spans="5:32" x14ac:dyDescent="0.2">
-      <c r="E79" s="2"/>
       <c r="I79" s="2"/>
       <c r="N79" s="2"/>
-      <c r="AF79" s="2"/>
     </row>
     <row r="80" spans="5:32" x14ac:dyDescent="0.2">
       <c r="I80" s="2"/>
@@ -21749,10 +21712,6 @@
     <row r="100" spans="9:14" x14ac:dyDescent="0.2">
       <c r="I100" s="2"/>
       <c r="N100" s="2"/>
-    </row>
-    <row r="101" spans="9:14" x14ac:dyDescent="0.2">
-      <c r="I101" s="2"/>
-      <c r="N101" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21767,11 +21726,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21839,22 +21798,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E4" t="s">
         <v>2235</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>2236</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2237</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2238</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2239</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -21891,7 +21850,7 @@
         <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>2229</v>
+        <v>2226</v>
       </c>
       <c r="F6" t="s">
         <v>274</v>
@@ -21911,7 +21870,7 @@
         <v>249</v>
       </c>
       <c r="E7" t="s">
-        <v>2226</v>
+        <v>2223</v>
       </c>
       <c r="F7" t="s">
         <v>271</v>
@@ -21931,7 +21890,7 @@
         <v>251</v>
       </c>
       <c r="E8" t="s">
-        <v>2228</v>
+        <v>2225</v>
       </c>
       <c r="F8" t="s">
         <v>273</v>
@@ -21939,22 +21898,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E9" t="s">
         <v>2250</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F9" t="s">
         <v>2251</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2252</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2253</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2254</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -21971,7 +21930,7 @@
         <v>244</v>
       </c>
       <c r="E10" t="s">
-        <v>2223</v>
+        <v>2220</v>
       </c>
       <c r="F10" t="s">
         <v>266</v>
@@ -21979,22 +21938,22 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E11" t="s">
         <v>2265</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>2266</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2267</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2268</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2269</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -22031,7 +21990,7 @@
         <v>241</v>
       </c>
       <c r="E13" t="s">
-        <v>2221</v>
+        <v>2218</v>
       </c>
       <c r="F13" t="s">
         <v>263</v>
@@ -22039,22 +21998,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2259</v>
+      </c>
+      <c r="E14" t="s">
         <v>2260</v>
       </c>
-      <c r="B14" t="s">
+      <c r="F14" t="s">
         <v>2261</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2262</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2263</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2264</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -22088,7 +22047,7 @@
         <v>250</v>
       </c>
       <c r="E16" t="s">
-        <v>2227</v>
+        <v>2224</v>
       </c>
       <c r="F16" t="s">
         <v>272</v>
@@ -22128,7 +22087,7 @@
         <v>242</v>
       </c>
       <c r="E18" t="s">
-        <v>2222</v>
+        <v>2219</v>
       </c>
       <c r="F18" t="s">
         <v>264</v>
@@ -22136,22 +22095,22 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2254</v>
+      </c>
+      <c r="E19" t="s">
         <v>2255</v>
       </c>
-      <c r="B19" t="s">
+      <c r="F19" t="s">
         <v>2256</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2257</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2258</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2259</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -22168,7 +22127,7 @@
         <v>258</v>
       </c>
       <c r="E20" t="s">
-        <v>2230</v>
+        <v>2227</v>
       </c>
       <c r="F20" t="s">
         <v>275</v>
@@ -22188,7 +22147,7 @@
         <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="F21" t="s">
         <v>259</v>
@@ -22196,42 +22155,42 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2230</v>
+      </c>
+      <c r="F22" t="s">
         <v>2231</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2232</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2274</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2233</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2234</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2238</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E23" t="s">
         <v>2240</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" t="s">
         <v>2241</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2242</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2243</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2244</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -22268,7 +22227,7 @@
         <v>247</v>
       </c>
       <c r="E25" t="s">
-        <v>2225</v>
+        <v>2222</v>
       </c>
       <c r="F25" t="s">
         <v>269</v>
@@ -22288,7 +22247,7 @@
         <v>245</v>
       </c>
       <c r="E26" t="s">
-        <v>2224</v>
+        <v>2221</v>
       </c>
       <c r="F26" t="s">
         <v>267</v>
@@ -22296,22 +22255,22 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E27" t="s">
         <v>2245</v>
       </c>
-      <c r="B27" t="s">
+      <c r="F27" t="s">
         <v>2246</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2247</v>
-      </c>
-      <c r="E27" t="s">
-        <v>2248</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2249</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -22328,7 +22287,7 @@
         <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>2220</v>
+        <v>2217</v>
       </c>
       <c r="F28" t="s">
         <v>261</v>
@@ -22384,7 +22343,6 @@
       <c r="E89" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -23086,7 +23044,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E22" t="s">
         <v>334</v>
@@ -23109,7 +23067,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="B23">
         <v>555548903</v>
@@ -23118,30 +23076,30 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="E23" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H23" t="s">
         <v>1447</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1448</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1449</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1450</v>
       </c>
       <c r="I23" t="s">
         <v>386</v>
       </c>
       <c r="J23" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="B24">
         <v>50096544</v>
@@ -23150,30 +23108,30 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G24" t="s">
         <v>1453</v>
       </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>1454</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1455</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1456</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1457</v>
       </c>
       <c r="I24" t="s">
         <v>386</v>
       </c>
       <c r="J24" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="B25">
         <v>3159148494</v>
@@ -23182,30 +23140,30 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1458</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1457</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1459</v>
+      </c>
+      <c r="H25" t="s">
         <v>1460</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1461</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1460</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1462</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1463</v>
       </c>
       <c r="I25" t="s">
         <v>386</v>
       </c>
       <c r="J25" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="B26">
         <v>52554306</v>
@@ -23214,30 +23172,30 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1464</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1465</v>
+      </c>
+      <c r="H26" t="s">
         <v>1466</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1467</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1466</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1468</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1469</v>
       </c>
       <c r="I26" t="s">
         <v>386</v>
       </c>
       <c r="J26" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="B27">
         <v>96821645</v>
@@ -23246,24 +23204,24 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="E27" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="F27" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="I27" t="s">
         <v>386</v>
       </c>
       <c r="J27" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="B28">
         <v>86330674</v>
@@ -23272,30 +23230,30 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1474</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H28" t="s">
         <v>1477</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1478</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1479</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1480</v>
       </c>
       <c r="I28" t="s">
         <v>386</v>
       </c>
       <c r="J28" t="s">
-        <v>1481</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1482</v>
+        <v>1479</v>
       </c>
       <c r="B29">
         <v>186262839</v>
@@ -23304,13 +23262,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="E29" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="F29" t="s">
-        <v>1484</v>
+        <v>1481</v>
       </c>
       <c r="G29" t="s">
         <v>361</v>
@@ -23322,12 +23280,12 @@
         <v>386</v>
       </c>
       <c r="J29" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1486</v>
+        <v>1483</v>
       </c>
       <c r="B30">
         <v>28562317</v>
@@ -23336,30 +23294,30 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G30" t="s">
         <v>1487</v>
       </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>1488</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1489</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1490</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1491</v>
       </c>
       <c r="I30" t="s">
         <v>386</v>
       </c>
       <c r="J30" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="B31">
         <v>398323499</v>
@@ -23368,13 +23326,13 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E31" t="s">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="F31" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="G31" t="s">
         <v>367</v>
@@ -23386,12 +23344,12 @@
         <v>386</v>
       </c>
       <c r="J31" t="s">
-        <v>1496</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="B32">
         <v>577403888</v>
@@ -23400,30 +23358,30 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1495</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1497</v>
+      </c>
+      <c r="H32" t="s">
         <v>1498</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1498</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1500</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1501</v>
       </c>
       <c r="I32" t="s">
         <v>386</v>
       </c>
       <c r="J32" t="s">
-        <v>1502</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1503</v>
+        <v>1500</v>
       </c>
       <c r="B33">
         <v>237670274</v>
@@ -23432,30 +23390,30 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E33" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1502</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H33" t="s">
         <v>1504</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1506</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1507</v>
       </c>
       <c r="I33" t="s">
         <v>386</v>
       </c>
       <c r="J33" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1509</v>
+        <v>1506</v>
       </c>
       <c r="B34">
         <v>381688396</v>
@@ -23464,13 +23422,13 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="E34" t="s">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="F34" t="s">
-        <v>1510</v>
+        <v>1507</v>
       </c>
       <c r="G34" t="s">
         <v>367</v>
@@ -23482,12 +23440,12 @@
         <v>386</v>
       </c>
       <c r="J34" t="s">
-        <v>1512</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1513</v>
+        <v>1510</v>
       </c>
       <c r="B35">
         <v>25399731</v>
@@ -23496,16 +23454,16 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="E35" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="F35" t="s">
-        <v>1514</v>
+        <v>1511</v>
       </c>
       <c r="G35" t="s">
-        <v>1516</v>
+        <v>1513</v>
       </c>
       <c r="H35" t="s">
         <v>367</v>
@@ -23514,12 +23472,12 @@
         <v>386</v>
       </c>
       <c r="J35" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="B36">
         <v>22685200</v>
@@ -23528,13 +23486,13 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="E36" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="F36" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="G36" t="s">
         <v>360</v>
@@ -23546,12 +23504,12 @@
         <v>386</v>
       </c>
       <c r="J36" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="B37">
         <v>306490355</v>
@@ -23560,13 +23518,13 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="E37" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="F37" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="G37" t="s">
         <v>361</v>
@@ -23578,12 +23536,12 @@
         <v>386</v>
       </c>
       <c r="J37" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="B38">
         <v>17454419</v>
@@ -23592,30 +23550,30 @@
         <v>1</v>
       </c>
       <c r="D38" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H38" t="s">
         <v>1529</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1530</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1529</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1531</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1532</v>
       </c>
       <c r="I38" t="s">
         <v>386</v>
       </c>
       <c r="J38" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="B39">
         <v>72644483</v>
@@ -23624,30 +23582,30 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H39" t="s">
         <v>1535</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1536</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1535</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1537</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1538</v>
       </c>
       <c r="I39" t="s">
         <v>386</v>
       </c>
       <c r="J39" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="B40">
         <v>32625314</v>
@@ -23656,25 +23614,25 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1538</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H40" t="s">
         <v>1541</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1542</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1541</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1543</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1544</v>
       </c>
       <c r="I40" t="s">
         <v>386</v>
       </c>
       <c r="J40" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -24585,54 +24543,54 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="B22">
         <v>112508240</v>
       </c>
       <c r="C22" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H22" t="s">
         <v>1547</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1548</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1547</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1549</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1550</v>
       </c>
       <c r="I22" t="s">
         <v>494</v>
       </c>
       <c r="J22" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="B23">
         <v>94844786</v>
       </c>
       <c r="C23" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="F23" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="G23" t="s">
         <v>514</v>
@@ -24644,59 +24602,59 @@
         <v>494</v>
       </c>
       <c r="J23" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="B24">
         <v>18131961</v>
       </c>
       <c r="C24" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H24" t="s">
         <v>1557</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1558</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1557</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1559</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1560</v>
       </c>
       <c r="I24" t="s">
         <v>494</v>
       </c>
       <c r="J24" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="B25">
         <v>18320938</v>
       </c>
       <c r="C25" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="F25" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="G25" t="s">
         <v>514</v>
@@ -24708,59 +24666,59 @@
         <v>494</v>
       </c>
       <c r="J25" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1566</v>
+        <v>1563</v>
       </c>
       <c r="B26">
         <v>15666380</v>
       </c>
       <c r="C26" t="s">
-        <v>1568</v>
+        <v>1565</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H26" t="s">
         <v>1567</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1568</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1569</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1570</v>
       </c>
       <c r="I26" t="s">
         <v>494</v>
       </c>
       <c r="J26" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="B27">
         <v>15978244</v>
       </c>
       <c r="C27" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="F27" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="G27" t="s">
         <v>514</v>
@@ -24772,155 +24730,155 @@
         <v>494</v>
       </c>
       <c r="J27" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="B28">
         <v>271725689</v>
       </c>
       <c r="C28" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H28" t="s">
         <v>1577</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1578</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1577</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1580</v>
       </c>
       <c r="I28" t="s">
         <v>494</v>
       </c>
       <c r="J28" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="B29">
         <v>38536306</v>
       </c>
       <c r="C29" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H29" t="s">
         <v>1583</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1584</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1585</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1586</v>
       </c>
       <c r="I29" t="s">
         <v>494</v>
       </c>
       <c r="J29" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1588</v>
+        <v>1585</v>
       </c>
       <c r="B30">
         <v>78194111</v>
       </c>
       <c r="C30" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1588</v>
+      </c>
+      <c r="H30" t="s">
         <v>1589</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1590</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1589</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1591</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1592</v>
       </c>
       <c r="I30" t="s">
         <v>494</v>
       </c>
       <c r="J30" t="s">
-        <v>1593</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1594</v>
+        <v>1591</v>
       </c>
       <c r="B31">
         <v>21718006</v>
       </c>
       <c r="C31" t="s">
-        <v>1596</v>
+        <v>1593</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H31" t="s">
         <v>1595</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1596</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1598</v>
       </c>
       <c r="I31" t="s">
         <v>494</v>
       </c>
       <c r="J31" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1600</v>
+        <v>1597</v>
       </c>
       <c r="B32">
         <v>28061932</v>
       </c>
       <c r="C32" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>1602</v>
+        <v>1599</v>
       </c>
       <c r="F32" t="s">
-        <v>1601</v>
+        <v>1598</v>
       </c>
       <c r="G32" t="s">
         <v>504</v>
@@ -24932,59 +24890,59 @@
         <v>494</v>
       </c>
       <c r="J32" t="s">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1604</v>
+        <v>1601</v>
       </c>
       <c r="B33">
         <v>15147397</v>
       </c>
       <c r="C33" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1603</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H33" t="s">
         <v>1605</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1605</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1607</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1608</v>
       </c>
       <c r="I33" t="s">
         <v>494</v>
       </c>
       <c r="J33" t="s">
-        <v>1609</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1610</v>
+        <v>1607</v>
       </c>
       <c r="B34">
         <v>78366205</v>
       </c>
       <c r="C34" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>1612</v>
+        <v>1609</v>
       </c>
       <c r="F34" t="s">
-        <v>1611</v>
+        <v>1608</v>
       </c>
       <c r="G34" t="s">
         <v>504</v>
@@ -24996,123 +24954,123 @@
         <v>494</v>
       </c>
       <c r="J34" t="s">
-        <v>1613</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1614</v>
+        <v>1611</v>
       </c>
       <c r="B35">
         <v>64857767</v>
       </c>
       <c r="C35" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H35" t="s">
         <v>1615</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1616</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1615</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1617</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1618</v>
       </c>
       <c r="I35" t="s">
         <v>494</v>
       </c>
       <c r="J35" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1620</v>
+        <v>1617</v>
       </c>
       <c r="B36">
         <v>545235190</v>
       </c>
       <c r="C36" t="s">
-        <v>1622</v>
+        <v>1619</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H36" t="s">
         <v>1621</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1622</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1623</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1624</v>
       </c>
       <c r="I36" t="s">
         <v>494</v>
       </c>
       <c r="J36" t="s">
-        <v>1625</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1626</v>
+        <v>1623</v>
       </c>
       <c r="B37">
         <v>17953972</v>
       </c>
       <c r="C37" t="s">
-        <v>1628</v>
+        <v>1625</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H37" t="s">
         <v>1627</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1628</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1629</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1630</v>
       </c>
       <c r="I37" t="s">
         <v>494</v>
       </c>
       <c r="J37" t="s">
-        <v>1631</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="B38">
         <v>28245852</v>
       </c>
       <c r="C38" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>1633</v>
+        <v>1630</v>
       </c>
       <c r="F38" t="s">
-        <v>1634</v>
+        <v>1631</v>
       </c>
       <c r="G38" t="s">
         <v>512</v>
@@ -25124,27 +25082,27 @@
         <v>494</v>
       </c>
       <c r="J38" t="s">
-        <v>1635</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1636</v>
+        <v>1633</v>
       </c>
       <c r="B39">
         <v>35206553</v>
       </c>
       <c r="C39" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>1638</v>
+        <v>1635</v>
       </c>
       <c r="F39" t="s">
-        <v>1637</v>
+        <v>1634</v>
       </c>
       <c r="G39" t="s">
         <v>499</v>
@@ -25156,39 +25114,39 @@
         <v>494</v>
       </c>
       <c r="J39" t="s">
-        <v>1639</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1640</v>
+        <v>1637</v>
       </c>
       <c r="B40">
         <v>258896042</v>
       </c>
       <c r="C40" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1638</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1640</v>
+      </c>
+      <c r="H40" t="s">
         <v>1641</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>1642</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1641</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1643</v>
-      </c>
-      <c r="H40" t="s">
-        <v>1644</v>
       </c>
       <c r="I40" t="s">
         <v>494</v>
       </c>
       <c r="J40" t="s">
-        <v>1645</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -26133,22 +26091,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1646</v>
+        <v>1643</v>
       </c>
       <c r="B22">
         <v>16201775</v>
       </c>
       <c r="C22" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>1648</v>
+        <v>1645</v>
       </c>
       <c r="F22" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="G22" t="s">
         <v>611</v>
@@ -26160,27 +26118,27 @@
         <v>645</v>
       </c>
       <c r="J22" t="s">
-        <v>1649</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1650</v>
+        <v>1647</v>
       </c>
       <c r="B23">
         <v>16347506</v>
       </c>
       <c r="C23" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="F23" t="s">
-        <v>1651</v>
+        <v>1648</v>
       </c>
       <c r="G23" t="s">
         <v>615</v>
@@ -26192,91 +26150,91 @@
         <v>647</v>
       </c>
       <c r="J23" t="s">
-        <v>1653</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1654</v>
+        <v>1651</v>
       </c>
       <c r="B24">
         <v>25084916</v>
       </c>
       <c r="C24" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1653</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1652</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1654</v>
+      </c>
+      <c r="H24" t="s">
         <v>1655</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1656</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1655</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1657</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1658</v>
       </c>
       <c r="I24" t="s">
         <v>646</v>
       </c>
       <c r="J24" t="s">
-        <v>1659</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1660</v>
+        <v>1657</v>
       </c>
       <c r="B25">
         <v>53178109</v>
       </c>
       <c r="C25" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1660</v>
+      </c>
+      <c r="H25" t="s">
         <v>1661</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1663</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1664</v>
       </c>
       <c r="I25" t="s">
         <v>644</v>
       </c>
       <c r="J25" t="s">
-        <v>1665</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1666</v>
+        <v>1663</v>
       </c>
       <c r="B26">
         <v>44666348</v>
       </c>
       <c r="C26" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>1668</v>
+        <v>1665</v>
       </c>
       <c r="F26" t="s">
-        <v>1667</v>
+        <v>1664</v>
       </c>
       <c r="G26" t="s">
         <v>624</v>
@@ -26288,91 +26246,91 @@
         <v>647</v>
       </c>
       <c r="J26" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="B27">
         <v>52803520</v>
       </c>
       <c r="C27" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H27" t="s">
         <v>1671</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1672</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1671</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1673</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1674</v>
       </c>
       <c r="I27" t="s">
         <v>644</v>
       </c>
       <c r="J27" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1676</v>
+        <v>1673</v>
       </c>
       <c r="B28">
         <v>20264905</v>
       </c>
       <c r="C28" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1675</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1674</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H28" t="s">
         <v>1677</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="I28" t="s">
         <v>1678</v>
       </c>
-      <c r="F28" t="s">
-        <v>1677</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="J28" t="s">
         <v>1679</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1680</v>
-      </c>
-      <c r="I28" t="s">
-        <v>1681</v>
-      </c>
-      <c r="J28" t="s">
-        <v>1682</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="B29">
         <v>18552281</v>
       </c>
       <c r="C29" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="F29" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="G29" t="s">
         <v>611</v>
@@ -26384,27 +26342,27 @@
         <v>645</v>
       </c>
       <c r="J29" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="B30">
         <v>15900167</v>
       </c>
       <c r="C30" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="F30" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="G30" t="s">
         <v>611</v>
@@ -26416,91 +26374,91 @@
         <v>645</v>
       </c>
       <c r="J30" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="B31">
         <v>44166798</v>
       </c>
       <c r="C31" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1691</v>
+      </c>
+      <c r="H31" t="s">
         <v>1692</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="I31" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J31" t="s">
         <v>1693</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1692</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1694</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1695</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1681</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1696</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="B32">
         <v>30008146</v>
       </c>
       <c r="C32" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1695</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1697</v>
+      </c>
+      <c r="H32" t="s">
         <v>1698</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1699</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1698</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1700</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1701</v>
       </c>
       <c r="I32" t="s">
         <v>644</v>
       </c>
       <c r="J32" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="B33">
         <v>19077044</v>
       </c>
       <c r="C33" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="F33" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="G33" t="s">
         <v>611</v>
@@ -26512,59 +26470,59 @@
         <v>645</v>
       </c>
       <c r="J33" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="B34">
         <v>43024351</v>
       </c>
       <c r="C34" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
+        <v>1705</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1707</v>
+      </c>
+      <c r="H34" t="s">
         <v>1708</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1709</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1710</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1711</v>
       </c>
       <c r="I34" t="s">
         <v>644</v>
       </c>
       <c r="J34" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="B35">
         <v>22185437</v>
       </c>
       <c r="C35" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="F35" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="G35" t="s">
         <v>611</v>
@@ -26576,155 +26534,155 @@
         <v>645</v>
       </c>
       <c r="J35" t="s">
-        <v>1716</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="B36">
         <v>19383279</v>
       </c>
       <c r="C36" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1716</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1717</v>
+      </c>
+      <c r="H36" t="s">
         <v>1718</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1719</v>
-      </c>
-      <c r="F36" t="s">
-        <v>1718</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1720</v>
-      </c>
-      <c r="H36" t="s">
-        <v>1721</v>
       </c>
       <c r="I36" t="s">
         <v>647</v>
       </c>
       <c r="J36" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="B37">
         <v>180884045</v>
       </c>
       <c r="C37" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1721</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1723</v>
+      </c>
+      <c r="H37" t="s">
         <v>1724</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1725</v>
-      </c>
-      <c r="F37" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1726</v>
-      </c>
-      <c r="H37" t="s">
-        <v>1727</v>
       </c>
       <c r="I37" t="s">
         <v>647</v>
       </c>
       <c r="J37" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
       <c r="B38">
         <v>713143</v>
       </c>
       <c r="C38" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1727</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1729</v>
+      </c>
+      <c r="H38" t="s">
         <v>1730</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1731</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1730</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1732</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1733</v>
       </c>
       <c r="I38" t="s">
         <v>647</v>
       </c>
       <c r="J38" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
       <c r="B39">
         <v>18481113</v>
       </c>
       <c r="C39" t="s">
+        <v>1733</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H39" t="s">
         <v>1736</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1737</v>
-      </c>
-      <c r="F39" t="s">
-        <v>1736</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1738</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1739</v>
       </c>
       <c r="I39" t="s">
         <v>645</v>
       </c>
       <c r="J39" t="s">
-        <v>1740</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1741</v>
+        <v>1738</v>
       </c>
       <c r="B40">
         <v>14992591</v>
       </c>
       <c r="C40" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>1743</v>
+        <v>1740</v>
       </c>
       <c r="F40" t="s">
-        <v>1742</v>
+        <v>1739</v>
       </c>
       <c r="G40" t="s">
         <v>611</v>
@@ -26736,7 +26694,7 @@
         <v>645</v>
       </c>
       <c r="J40" t="s">
-        <v>1744</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -26982,7 +26940,7 @@
   <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView zoomScale="191" zoomScaleNormal="191" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD3"/>
@@ -27157,34 +27115,34 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
       <c r="B5">
         <v>352586927</v>
       </c>
       <c r="C5" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H5" t="s">
         <v>1759</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1760</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1761</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1762</v>
       </c>
       <c r="I5" t="s">
         <v>759</v>
       </c>
       <c r="J5" t="s">
-        <v>1763</v>
+        <v>1760</v>
       </c>
       <c r="N5" s="2"/>
     </row>
@@ -27301,7 +27259,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="F9" t="s">
         <v>718</v>
@@ -27328,7 +27286,7 @@
         <v>257305275</v>
       </c>
       <c r="C10" t="s">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -27361,7 +27319,7 @@
         <v>1398492114</v>
       </c>
       <c r="C11" t="s">
-        <v>1804</v>
+        <v>1801</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -27677,259 +27635,259 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="B21">
         <v>7.3261179565172326E+17</v>
       </c>
       <c r="C21" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H21" t="s">
         <v>1766</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1767</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1768</v>
-      </c>
-      <c r="H21" t="s">
-        <v>1769</v>
       </c>
       <c r="I21" t="s">
         <v>759</v>
       </c>
       <c r="J21" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
       <c r="B22">
         <v>2811990684</v>
       </c>
       <c r="C22" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1770</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G22" t="s">
         <v>1772</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="H22" t="s">
         <v>1773</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1774</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1775</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1776</v>
       </c>
       <c r="I22" t="s">
         <v>759</v>
       </c>
       <c r="J22" t="s">
-        <v>1777</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1778</v>
+        <v>1775</v>
       </c>
       <c r="B23">
         <v>1927342550</v>
       </c>
       <c r="C23" t="s">
-        <v>1780</v>
+        <v>1777</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
+        <v>1776</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1777</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1778</v>
+      </c>
+      <c r="H23" t="s">
         <v>1779</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1780</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1781</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1782</v>
       </c>
       <c r="I23" t="s">
         <v>759</v>
       </c>
       <c r="J23" t="s">
-        <v>1783</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1784</v>
+        <v>1781</v>
       </c>
       <c r="B24">
         <v>2528603617</v>
       </c>
       <c r="C24" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G24" t="s">
         <v>1785</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="H24" t="s">
         <v>1786</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1787</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1788</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1789</v>
       </c>
       <c r="I24" t="s">
         <v>759</v>
       </c>
       <c r="J24" t="s">
-        <v>1790</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1791</v>
+        <v>1788</v>
       </c>
       <c r="B25">
         <v>1730412992</v>
       </c>
       <c r="C25" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1790</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H25" t="s">
         <v>1792</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1793</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1792</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1794</v>
-      </c>
-      <c r="H25" t="s">
-        <v>1795</v>
       </c>
       <c r="I25" t="s">
         <v>759</v>
       </c>
       <c r="J25" t="s">
-        <v>1796</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1797</v>
+        <v>1794</v>
       </c>
       <c r="B26">
         <v>512311719</v>
       </c>
       <c r="C26" t="s">
-        <v>1799</v>
+        <v>1796</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1796</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1797</v>
+      </c>
+      <c r="H26" t="s">
         <v>1798</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1799</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1800</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1801</v>
       </c>
       <c r="I26" t="s">
         <v>759</v>
       </c>
       <c r="J26" t="s">
-        <v>1802</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1745</v>
+        <v>1742</v>
       </c>
       <c r="B27">
         <v>20255162</v>
       </c>
       <c r="C27" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G27" t="s">
         <v>1746</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="H27" t="s">
         <v>1747</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1748</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1749</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1750</v>
       </c>
       <c r="I27" t="s">
         <v>759</v>
       </c>
       <c r="J27" t="s">
-        <v>1751</v>
+        <v>1748</v>
       </c>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1752</v>
+        <v>1749</v>
       </c>
       <c r="B28">
         <v>81111260</v>
       </c>
       <c r="C28" t="s">
+        <v>1750</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1750</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H28" t="s">
         <v>1753</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1754</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1753</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1755</v>
-      </c>
-      <c r="H28" t="s">
-        <v>1756</v>
       </c>
       <c r="I28" t="s">
         <v>759</v>
       </c>
       <c r="J28" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
       <c r="N28" s="2"/>
     </row>
@@ -28620,54 +28578,54 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1805</v>
+        <v>1802</v>
       </c>
       <c r="B22">
         <v>155659213</v>
       </c>
       <c r="C22" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1805</v>
+      </c>
+      <c r="H22" t="s">
         <v>1806</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="I22" t="s">
         <v>1807</v>
       </c>
-      <c r="F22" t="s">
-        <v>1806</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>1808</v>
-      </c>
-      <c r="H22" t="s">
-        <v>1809</v>
-      </c>
-      <c r="I22" t="s">
-        <v>1810</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="B23">
         <v>53853197</v>
       </c>
       <c r="C23" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>1813</v>
+        <v>1810</v>
       </c>
       <c r="G23" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="H23" t="s">
         <v>849</v>
@@ -28676,30 +28634,30 @@
         <v>858</v>
       </c>
       <c r="J23" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
       <c r="B24">
         <v>317370751</v>
       </c>
       <c r="C24" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
       <c r="F24" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
       <c r="G24" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
       <c r="H24" t="s">
         <v>849</v>
@@ -28708,30 +28666,30 @@
         <v>858</v>
       </c>
       <c r="J24" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
       <c r="B25">
         <v>267425142</v>
       </c>
       <c r="C25" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
       <c r="F25" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
       <c r="G25" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="H25" t="s">
         <v>849</v>
@@ -28740,30 +28698,30 @@
         <v>858</v>
       </c>
       <c r="J25" t="s">
-        <v>1824</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1825</v>
+        <v>1822</v>
       </c>
       <c r="B26">
         <v>2279776304</v>
       </c>
       <c r="C26" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>1827</v>
+        <v>1824</v>
       </c>
       <c r="F26" t="s">
-        <v>1826</v>
+        <v>1823</v>
       </c>
       <c r="G26" t="s">
-        <v>1828</v>
+        <v>1825</v>
       </c>
       <c r="H26" t="s">
         <v>849</v>
@@ -28772,27 +28730,27 @@
         <v>858</v>
       </c>
       <c r="J26" t="s">
-        <v>1829</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1830</v>
+        <v>1827</v>
       </c>
       <c r="B27">
         <v>135249573</v>
       </c>
       <c r="C27" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="F27" t="s">
-        <v>1831</v>
+        <v>1828</v>
       </c>
       <c r="G27" t="s">
         <v>841</v>
@@ -28804,30 +28762,30 @@
         <v>859</v>
       </c>
       <c r="J27" t="s">
-        <v>1833</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1834</v>
+        <v>1831</v>
       </c>
       <c r="B28">
         <v>7.7328068417346355E+17</v>
       </c>
       <c r="C28" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>1835</v>
+        <v>1832</v>
       </c>
       <c r="F28" t="s">
-        <v>1836</v>
+        <v>1833</v>
       </c>
       <c r="G28" t="s">
-        <v>1837</v>
+        <v>1834</v>
       </c>
       <c r="H28" t="s">
         <v>856</v>
@@ -28836,187 +28794,187 @@
         <v>862</v>
       </c>
       <c r="J28" t="s">
-        <v>1838</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1839</v>
+        <v>1836</v>
       </c>
       <c r="B29">
         <v>122130797</v>
       </c>
       <c r="C29" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H29" t="s">
         <v>1840</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="I29" t="s">
         <v>1841</v>
       </c>
-      <c r="F29" t="s">
-        <v>1840</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="J29" t="s">
         <v>1842</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1843</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1844</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1845</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1846</v>
+        <v>1843</v>
       </c>
       <c r="B30">
         <v>3158470088</v>
       </c>
       <c r="C30" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1846</v>
+      </c>
+      <c r="G30" t="s">
         <v>1847</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="H30" t="s">
         <v>1848</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1849</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1850</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1851</v>
       </c>
       <c r="I30" t="s">
         <v>864</v>
       </c>
       <c r="J30" t="s">
-        <v>1852</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="B31">
         <v>80094297</v>
       </c>
       <c r="C31" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1851</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1853</v>
+      </c>
+      <c r="H31" t="s">
         <v>1854</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1854</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1856</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1857</v>
       </c>
       <c r="I31" t="s">
         <v>859</v>
       </c>
       <c r="J31" t="s">
-        <v>1858</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1859</v>
+        <v>1856</v>
       </c>
       <c r="B32">
         <v>46671731</v>
       </c>
       <c r="C32" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1857</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1859</v>
+      </c>
+      <c r="H32" t="s">
         <v>1860</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1860</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1862</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1863</v>
       </c>
       <c r="I32" t="s">
         <v>861</v>
       </c>
       <c r="J32" t="s">
-        <v>1864</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1865</v>
+        <v>1862</v>
       </c>
       <c r="B33">
         <v>323120520</v>
       </c>
       <c r="C33" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1863</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1865</v>
+      </c>
+      <c r="H33" t="s">
         <v>1866</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1867</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1866</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1868</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1869</v>
       </c>
       <c r="I33" t="s">
         <v>861</v>
       </c>
       <c r="J33" t="s">
-        <v>1870</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1871</v>
+        <v>1868</v>
       </c>
       <c r="B34">
         <v>2157497975</v>
       </c>
       <c r="C34" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>1873</v>
+        <v>1870</v>
       </c>
       <c r="F34" t="s">
-        <v>1872</v>
+        <v>1869</v>
       </c>
       <c r="G34" t="s">
         <v>841</v>
@@ -29028,27 +28986,27 @@
         <v>859</v>
       </c>
       <c r="J34" t="s">
-        <v>1874</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1875</v>
+        <v>1872</v>
       </c>
       <c r="B35">
         <v>174533632</v>
       </c>
       <c r="C35" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="F35" t="s">
-        <v>1876</v>
+        <v>1873</v>
       </c>
       <c r="G35" t="s">
         <v>841</v>
@@ -29060,30 +29018,30 @@
         <v>859</v>
       </c>
       <c r="J35" t="s">
-        <v>1878</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1879</v>
+        <v>1876</v>
       </c>
       <c r="B36">
         <v>416814339</v>
       </c>
       <c r="C36" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="F36" t="s">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="G36" t="s">
-        <v>1882</v>
+        <v>1879</v>
       </c>
       <c r="H36" t="s">
         <v>849</v>
@@ -29092,27 +29050,27 @@
         <v>864</v>
       </c>
       <c r="J36" t="s">
-        <v>1883</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1884</v>
+        <v>1881</v>
       </c>
       <c r="B37">
         <v>21454322</v>
       </c>
       <c r="C37" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>1886</v>
+        <v>1883</v>
       </c>
       <c r="F37" t="s">
-        <v>1885</v>
+        <v>1882</v>
       </c>
       <c r="G37" t="s">
         <v>840</v>
@@ -29124,62 +29082,62 @@
         <v>859</v>
       </c>
       <c r="J37" t="s">
-        <v>1887</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1888</v>
+        <v>1885</v>
       </c>
       <c r="B38">
         <v>28665877</v>
       </c>
       <c r="C38" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1888</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1840</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1807</v>
+      </c>
+      <c r="J38" t="s">
         <v>1889</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1890</v>
-      </c>
-      <c r="F38" t="s">
-        <v>1889</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1891</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1843</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1810</v>
-      </c>
-      <c r="J38" t="s">
-        <v>1892</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1893</v>
+        <v>1890</v>
       </c>
       <c r="B39">
         <v>506429053</v>
       </c>
       <c r="C39" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>1895</v>
+        <v>1892</v>
       </c>
       <c r="F39" t="s">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="G39" t="s">
-        <v>1896</v>
+        <v>1893</v>
       </c>
       <c r="H39" t="s">
         <v>856</v>
@@ -29188,30 +29146,30 @@
         <v>862</v>
       </c>
       <c r="J39" t="s">
-        <v>1897</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1898</v>
+        <v>1895</v>
       </c>
       <c r="B40">
         <v>34430522</v>
       </c>
       <c r="C40" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1900</v>
+        <v>1897</v>
       </c>
       <c r="F40" t="s">
-        <v>1899</v>
+        <v>1896</v>
       </c>
       <c r="G40" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
       <c r="H40" t="s">
         <v>849</v>
@@ -29220,7 +29178,7 @@
         <v>858</v>
       </c>
       <c r="J40" t="s">
-        <v>1901</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.2">
@@ -30078,7 +30036,7 @@
         <v>18018355</v>
       </c>
       <c r="C19" t="s">
-        <v>1981</v>
+        <v>1978</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -30168,22 +30126,22 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>1902</v>
+        <v>1899</v>
       </c>
       <c r="B22">
         <v>259395895</v>
       </c>
       <c r="C22" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>1904</v>
+        <v>1901</v>
       </c>
       <c r="F22" t="s">
-        <v>1903</v>
+        <v>1900</v>
       </c>
       <c r="G22" t="s">
         <v>947</v>
@@ -30195,27 +30153,27 @@
         <v>952</v>
       </c>
       <c r="J22" t="s">
-        <v>1905</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="B23">
         <v>11744152</v>
       </c>
       <c r="C23" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>1907</v>
+        <v>1904</v>
       </c>
       <c r="F23" t="s">
-        <v>1908</v>
+        <v>1905</v>
       </c>
       <c r="G23" t="s">
         <v>947</v>
@@ -30227,27 +30185,27 @@
         <v>952</v>
       </c>
       <c r="J23" t="s">
-        <v>1909</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1910</v>
+        <v>1907</v>
       </c>
       <c r="B24">
         <v>215207998</v>
       </c>
       <c r="C24" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>1912</v>
+        <v>1909</v>
       </c>
       <c r="F24" t="s">
-        <v>1911</v>
+        <v>1908</v>
       </c>
       <c r="G24" t="s">
         <v>947</v>
@@ -30259,27 +30217,27 @@
         <v>952</v>
       </c>
       <c r="J24" t="s">
-        <v>1913</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1914</v>
+        <v>1911</v>
       </c>
       <c r="B25">
         <v>16378486</v>
       </c>
       <c r="C25" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>1916</v>
+        <v>1913</v>
       </c>
       <c r="F25" t="s">
-        <v>1915</v>
+        <v>1912</v>
       </c>
       <c r="G25" t="s">
         <v>948</v>
@@ -30291,27 +30249,27 @@
         <v>952</v>
       </c>
       <c r="J25" t="s">
-        <v>1917</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>1918</v>
+        <v>1915</v>
       </c>
       <c r="B26">
         <v>50325797</v>
       </c>
       <c r="C26" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>1920</v>
+        <v>1917</v>
       </c>
       <c r="F26" t="s">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="G26" t="s">
         <v>947</v>
@@ -30323,27 +30281,27 @@
         <v>952</v>
       </c>
       <c r="J26" t="s">
-        <v>1921</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>1922</v>
+        <v>1919</v>
       </c>
       <c r="B27">
         <v>21001599</v>
       </c>
       <c r="C27" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="F27" t="s">
-        <v>1924</v>
+        <v>1921</v>
       </c>
       <c r="G27" t="s">
         <v>947</v>
@@ -30355,30 +30313,30 @@
         <v>952</v>
       </c>
       <c r="J27" t="s">
-        <v>1925</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="B28">
         <v>130557513</v>
       </c>
       <c r="C28" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>1928</v>
+        <v>1925</v>
       </c>
       <c r="F28" t="s">
-        <v>1927</v>
+        <v>1924</v>
       </c>
       <c r="G28" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="H28" t="s">
         <v>953</v>
@@ -30387,27 +30345,27 @@
         <v>952</v>
       </c>
       <c r="J28" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>1931</v>
+        <v>1928</v>
       </c>
       <c r="B29">
         <v>25598396</v>
       </c>
       <c r="C29" t="s">
-        <v>1932</v>
+        <v>1929</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>1933</v>
+        <v>1930</v>
       </c>
       <c r="F29" t="s">
-        <v>1934</v>
+        <v>1931</v>
       </c>
       <c r="G29" t="s">
         <v>947</v>
@@ -30419,27 +30377,27 @@
         <v>952</v>
       </c>
       <c r="J29" t="s">
-        <v>1935</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>1936</v>
+        <v>1933</v>
       </c>
       <c r="B30">
         <v>55948054</v>
       </c>
       <c r="C30" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>1938</v>
+        <v>1935</v>
       </c>
       <c r="F30" t="s">
-        <v>1937</v>
+        <v>1934</v>
       </c>
       <c r="G30" t="s">
         <v>947</v>
@@ -30451,27 +30409,27 @@
         <v>952</v>
       </c>
       <c r="J30" t="s">
-        <v>1939</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>1940</v>
+        <v>1937</v>
       </c>
       <c r="B31">
         <v>20772763</v>
       </c>
       <c r="C31" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>1942</v>
+        <v>1939</v>
       </c>
       <c r="F31" t="s">
-        <v>1941</v>
+        <v>1938</v>
       </c>
       <c r="G31" t="s">
         <v>947</v>
@@ -30483,27 +30441,27 @@
         <v>952</v>
       </c>
       <c r="J31" t="s">
-        <v>1943</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>1944</v>
+        <v>1941</v>
       </c>
       <c r="B32">
         <v>48459553</v>
       </c>
       <c r="C32" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>1946</v>
+        <v>1943</v>
       </c>
       <c r="F32" t="s">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="G32" t="s">
         <v>947</v>
@@ -30515,27 +30473,27 @@
         <v>952</v>
       </c>
       <c r="J32" t="s">
-        <v>1947</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="B33">
         <v>19400611</v>
       </c>
       <c r="C33" t="s">
-        <v>1949</v>
+        <v>1946</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>1950</v>
+        <v>1947</v>
       </c>
       <c r="F33" t="s">
-        <v>1951</v>
+        <v>1948</v>
       </c>
       <c r="G33" t="s">
         <v>947</v>
@@ -30547,27 +30505,27 @@
         <v>952</v>
       </c>
       <c r="J33" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>1953</v>
+        <v>1950</v>
       </c>
       <c r="B34">
         <v>22129280</v>
       </c>
       <c r="C34" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>1955</v>
+        <v>1952</v>
       </c>
       <c r="F34" t="s">
-        <v>1954</v>
+        <v>1951</v>
       </c>
       <c r="G34" t="s">
         <v>947</v>
@@ -30579,27 +30537,27 @@
         <v>952</v>
       </c>
       <c r="J34" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="B35">
         <v>12354832</v>
       </c>
       <c r="C35" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="F35" t="s">
-        <v>1958</v>
+        <v>1955</v>
       </c>
       <c r="G35" t="s">
         <v>947</v>
@@ -30611,27 +30569,27 @@
         <v>952</v>
       </c>
       <c r="J35" t="s">
-        <v>1960</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="B36">
         <v>123327472</v>
       </c>
       <c r="C36" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>1963</v>
+        <v>1960</v>
       </c>
       <c r="F36" t="s">
-        <v>1962</v>
+        <v>1959</v>
       </c>
       <c r="G36" t="s">
         <v>947</v>
@@ -30643,27 +30601,27 @@
         <v>952</v>
       </c>
       <c r="J36" t="s">
-        <v>1964</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="B37">
         <v>97474887</v>
       </c>
       <c r="C37" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>1967</v>
+        <v>1964</v>
       </c>
       <c r="F37" t="s">
-        <v>1966</v>
+        <v>1963</v>
       </c>
       <c r="G37" t="s">
         <v>947</v>
@@ -30675,27 +30633,27 @@
         <v>952</v>
       </c>
       <c r="J37" t="s">
-        <v>1968</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="B38">
         <v>37590426</v>
       </c>
       <c r="C38" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>1971</v>
+        <v>1968</v>
       </c>
       <c r="F38" t="s">
-        <v>1970</v>
+        <v>1967</v>
       </c>
       <c r="G38" t="s">
         <v>947</v>
@@ -30707,27 +30665,27 @@
         <v>952</v>
       </c>
       <c r="J38" t="s">
-        <v>1972</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="B39">
         <v>15740776</v>
       </c>
       <c r="C39" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>1975</v>
+        <v>1972</v>
       </c>
       <c r="F39" t="s">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="G39" t="s">
         <v>947</v>
@@ -30739,27 +30697,27 @@
         <v>952</v>
       </c>
       <c r="J39" t="s">
-        <v>1976</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>1977</v>
+        <v>1974</v>
       </c>
       <c r="B40">
         <v>326255267</v>
       </c>
       <c r="C40" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>1978</v>
+        <v>1975</v>
       </c>
       <c r="F40" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="G40" t="s">
         <v>947</v>
@@ -30771,7 +30729,7 @@
         <v>952</v>
       </c>
       <c r="J40" t="s">
-        <v>1980</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
